--- a/JsonExport/excel/Features_buff.xlsx
+++ b/JsonExport/excel/Features_buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27204"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\Project\Qiangzi_Unity\JsonExport\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47E521-C82A-4C29-B291-C22EF35E6CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -276,19 +282,17 @@
   </si>
   <si>
     <t>FeaturesDes_1000202</t>
+  </si>
+  <si>
+    <t>HPBuff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +303,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -306,155 +311,27 @@
       <sz val="11"/>
       <color theme="5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,204 +340,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -683,255 +374,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,16 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -962,17 +402,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,71 +414,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1331,40 +715,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.33333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.5555555555556" style="5" customWidth="1"/>
-    <col min="3" max="3" width="73.7777777777778" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.1111111111111" style="6" customWidth="1"/>
-    <col min="5" max="5" width="64.7777777777778" style="5" customWidth="1"/>
-    <col min="6" max="8" width="29.8888888888889" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="20.2222222222222" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="6.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="73.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="64.75" style="3" customWidth="1"/>
+    <col min="6" max="8" width="29.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="20.25" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:8">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1377,69 +761,69 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="53" customHeight="1" spans="2:8">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:10">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:8">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:8">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1449,435 +833,397 @@
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:11">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:11">
-      <c r="A8" s="14" t="s">
+      <c r="C7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:11">
-      <c r="A9" s="14" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:11">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:11">
-      <c r="A11" s="14" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="1:7">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4">
+      <c r="C11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
         <v>1001</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:7">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
         <v>1002</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
         <v>1003</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
         <v>1004</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" spans="1:7">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
         <v>1005</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
         <v>1006</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:7">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
         <v>1007</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:7">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
         <v>1008</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:7">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
         <v>1009</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:7">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
         <v>1010</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="5">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
         <v>1000101</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="5">
+      <c r="I22" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
         <v>1000102</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="5">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
         <v>1000103</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="5">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
         <v>1000201</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="5">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
         <v>1000202</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="5"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/JsonExport/excel/Features_buff.xlsx
+++ b/JsonExport/excel/Features_buff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\Project\Qiangzi_Unity\JsonExport\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47E521-C82A-4C29-B291-C22EF35E6CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53414603-6C8B-4547-9A12-9DFA513BEB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
   <si>
     <t>#</t>
   </si>
@@ -113,9 +114,6 @@
     <t>所有武器在攻击时，额外造成N次X%的伤害(相当于伤害=(1+N*X%)*攻击力)</t>
   </si>
   <si>
-    <t>(额外1次，造成30%伤害)=(1,0.3)</t>
-  </si>
-  <si>
     <t>/————————后续为实际特性ID字段————————/</t>
   </si>
   <si>
@@ -224,9 +222,6 @@
     <t>FeaturesDes_1010</t>
   </si>
   <si>
-    <t>剑士特性1--物理强度+30%</t>
-  </si>
-  <si>
     <t>(9,0.3)</t>
   </si>
   <si>
@@ -236,9 +231,6 @@
     <t>FeaturesDes_1000101</t>
   </si>
   <si>
-    <t>剑士特性2--魔法强度-50%</t>
-  </si>
-  <si>
     <t>(10,0.5)</t>
   </si>
   <si>
@@ -248,9 +240,6 @@
     <t>FeaturesDes_1000102</t>
   </si>
   <si>
-    <t>剑士特性3--护盾回复+30%</t>
-  </si>
-  <si>
     <t>(6,0.3)</t>
   </si>
   <si>
@@ -284,7 +273,187 @@
     <t>FeaturesDes_1000202</t>
   </si>
   <si>
-    <t>HPBuff</t>
+    <t>某个属性N获得数值上的X加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个属性N获得数值上的X衰减</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(生命值,10)=(2,10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个属性固定在X值，且永远不会改变</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士特性1--物理强度+30%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士特性2--魔法强度-50%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士特性3--护盾回复+30%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个属性获得某个属性A的X%加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个属性获得某个属性A的X%衰减</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(物理强度,20%)=(9,0.20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(额外1次，造成30%伤害)=(1,0.30)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(移动速度,1)=(8,1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有武器在攻击时，额外造成X%某种伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(虔诚伤害，20%)= (3，0.20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游侠特性1——使用远程武器时，获得20%暴击率加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成某种伤害时获得百分比加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成某种伤害时获得百分比衰减</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(所有伤害，10%)= (4，0.10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4，0.10)</t>
+  </si>
+  <si>
+    <t>(13,0.20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000301</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000302</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000301</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000302</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游侠特性2——在移动阶段就可以进行攻击，但是移动时造成伤害-10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士特性1——获得20%物理强度的防御强度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(9,0.20)</t>
+  </si>
+  <si>
+    <t>剑士特性2——装备近战武器，攻击有15%概率再次攻击一次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士特性3——装备饰品[剑魂]时，使用长剑武器攻击额外造成20%纯粹伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3，0.20)</t>
+  </si>
+  <si>
+    <t>所有武器在攻击时，额外攻击N次，有X%概率触发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(额外1次,15%概率)=(1，0.15)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1，0.15)</t>
+  </si>
+  <si>
+    <t>Features_1000401</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000402</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000403</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000401</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000402</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000403</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲兵特性1 —— 获得100%额外防御强度加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲兵特性2 —— 无法获得移速，移速将保持在1点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(12，1.00)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8,1.00)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000501</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000502</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000501</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000502</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -721,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -902,323 +1071,636 @@
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
+      <c r="E10" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="3">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="3" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
-        <v>1004</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="3">
-        <v>1005</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="3">
-        <v>1006</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
-        <v>1007</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
-        <v>1008</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="3">
-        <v>1009</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="3">
-        <v>1000101</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="3">
-        <v>1000102</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
-        <v>1000103</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
+        <v>1000101</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
+        <v>1000102</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
+        <v>1000103</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
+        <v>1000201</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="3">
-        <v>1000201</v>
-      </c>
-      <c r="C25" s="3" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
+        <v>1000202</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="3">
-        <v>1000202</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>86</v>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
+        <v>1000301</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
+        <v>1000302</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="3">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
+        <v>1000401</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
+        <v>1000401</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="3">
+        <v>12</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
+        <v>1000401</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="3">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
+        <v>1000501</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
+        <v>1000502</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="3">
+        <v>6</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/JsonExport/excel/Features_buff.xlsx
+++ b/JsonExport/excel/Features_buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53414603-6C8B-4547-9A12-9DFA513BEB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABC5B60-D2E9-4A42-8952-AF283DB528F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -893,7 +892,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1625,7 +1624,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
-        <v>1000401</v>
+        <v>1000402</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>110</v>
@@ -1645,7 +1644,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
-        <v>1000401</v>
+        <v>1000403</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>111</v>

--- a/JsonExport/excel/Features_buff.xlsx
+++ b/JsonExport/excel/Features_buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABC5B60-D2E9-4A42-8952-AF283DB528F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0379463-EB20-4E0C-B8DD-E86F70D26701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="131">
   <si>
     <t>#</t>
   </si>
@@ -332,14 +332,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>造成某种伤害时获得百分比加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成某种伤害时获得百分比衰减</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>(所有伤害，10%)= (4，0.10)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -453,6 +445,18 @@
   </si>
   <si>
     <t>FeaturesDes_1000502</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成某种伤害时获得百分比加成(物理1，魔法2，虔诚3，所有4)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成某种伤害时获得百分比衰减(物理1，魔法2，虔诚3，所有4)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -891,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1184,13 +1188,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3">
         <v>10</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1201,13 +1205,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D18" s="3">
         <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1218,13 +1222,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3">
         <v>12</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1573,13 +1577,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F38" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
@@ -1587,19 +1591,19 @@
         <v>1000302</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="3">
-        <v>11</v>
+        <v>105</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
@@ -1607,19 +1611,19 @@
         <v>1000401</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D40" s="3">
         <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
@@ -1627,19 +1631,19 @@
         <v>1000402</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="3">
         <v>12</v>
       </c>
       <c r="E41" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="G41" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
@@ -1647,19 +1651,19 @@
         <v>1000403</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D42" s="3">
         <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
@@ -1667,19 +1671,19 @@
         <v>1000501</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="G43" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
@@ -1687,19 +1691,19 @@
         <v>1000502</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D44" s="3">
         <v>6</v>
       </c>
       <c r="E44" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="G44" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/JsonExport/excel/Features_buff.xlsx
+++ b/JsonExport/excel/Features_buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0379463-EB20-4E0C-B8DD-E86F70D26701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901980F0-5A8E-41D1-8E12-87EA8D05A18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
   <si>
     <t>#</t>
   </si>
@@ -221,242 +221,239 @@
     <t>FeaturesDes_1010</t>
   </si>
   <si>
+    <t>Features_1000101</t>
+  </si>
+  <si>
+    <t>FeaturesDes_1000101</t>
+  </si>
+  <si>
+    <t>(10,0.5)</t>
+  </si>
+  <si>
+    <t>Features_1000102</t>
+  </si>
+  <si>
+    <t>FeaturesDes_1000102</t>
+  </si>
+  <si>
+    <t>(6,0.3)</t>
+  </si>
+  <si>
+    <t>Features_1000103</t>
+  </si>
+  <si>
+    <t>FeaturesDes_1000103</t>
+  </si>
+  <si>
+    <t>弓手特性1--物理强度-50%</t>
+  </si>
+  <si>
+    <t>(9,0.5)</t>
+  </si>
+  <si>
+    <t>Features_1000201</t>
+  </si>
+  <si>
+    <t>FeaturesDes_1000201</t>
+  </si>
+  <si>
+    <t>弓手特性2--每次攻击额外造成一次30%的伤害</t>
+  </si>
+  <si>
+    <t>(1,0.3)</t>
+  </si>
+  <si>
+    <t>Features_1000202</t>
+  </si>
+  <si>
+    <t>FeaturesDes_1000202</t>
+  </si>
+  <si>
+    <t>某个属性N获得数值上的X加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个属性N获得数值上的X衰减</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(生命值,10)=(2,10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个属性固定在X值，且永远不会改变</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士特性1--物理强度+30%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士特性2--魔法强度-50%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士特性3--护盾回复+30%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个属性获得某个属性A的X%加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个属性获得某个属性A的X%衰减</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(物理强度,20%)=(9,0.20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(额外1次，造成30%伤害)=(1,0.30)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(移动速度,1)=(8,1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有武器在攻击时，额外造成X%某种伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(虔诚伤害，20%)= (3，0.20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游侠特性1——使用远程武器时，获得20%暴击率加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(所有伤害，10%)= (4，0.10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4，0.10)</t>
+  </si>
+  <si>
+    <t>(13,0.20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000301</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000302</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000301</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000302</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游侠特性2——在移动阶段就可以进行攻击，但是移动时造成伤害-10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士特性1——获得20%物理强度的防御强度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(9,0.20)</t>
+  </si>
+  <si>
+    <t>剑士特性2——装备近战武器，攻击有15%概率再次攻击一次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士特性3——装备饰品[剑魂]时，使用长剑武器攻击额外造成20%纯粹伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3，0.20)</t>
+  </si>
+  <si>
+    <t>所有武器在攻击时，额外攻击N次，有X%概率触发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(额外1次,15%概率)=(1，0.15)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1，0.15)</t>
+  </si>
+  <si>
+    <t>Features_1000401</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000402</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000403</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000401</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000402</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000403</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲兵特性1 —— 获得100%额外防御强度加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲兵特性2 —— 无法获得移速，移速将保持在1点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(12，1.00)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8,1.00)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000501</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000502</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000501</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000502</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成某种伤害时获得百分比加成(物理1，魔法2，虔诚3，所有4)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成某种伤害时获得百分比衰减(物理1，魔法2，虔诚3，所有4)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>(9,0.3)</t>
-  </si>
-  <si>
-    <t>Features_1000101</t>
-  </si>
-  <si>
-    <t>FeaturesDes_1000101</t>
-  </si>
-  <si>
-    <t>(10,0.5)</t>
-  </si>
-  <si>
-    <t>Features_1000102</t>
-  </si>
-  <si>
-    <t>FeaturesDes_1000102</t>
-  </si>
-  <si>
-    <t>(6,0.3)</t>
-  </si>
-  <si>
-    <t>Features_1000103</t>
-  </si>
-  <si>
-    <t>FeaturesDes_1000103</t>
-  </si>
-  <si>
-    <t>弓手特性1--物理强度-50%</t>
-  </si>
-  <si>
-    <t>(9,0.5)</t>
-  </si>
-  <si>
-    <t>Features_1000201</t>
-  </si>
-  <si>
-    <t>FeaturesDes_1000201</t>
-  </si>
-  <si>
-    <t>弓手特性2--每次攻击额外造成一次30%的伤害</t>
-  </si>
-  <si>
-    <t>(1,0.3)</t>
-  </si>
-  <si>
-    <t>Features_1000202</t>
-  </si>
-  <si>
-    <t>FeaturesDes_1000202</t>
-  </si>
-  <si>
-    <t>某个属性N获得数值上的X加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个属性N获得数值上的X衰减</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(生命值,10)=(2,10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个属性固定在X值，且永远不会改变</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士特性1--物理强度+30%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士特性2--魔法强度-50%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士特性3--护盾回复+30%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个属性获得某个属性A的X%加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个属性获得某个属性A的X%衰减</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(物理强度,20%)=(9,0.20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(额外1次，造成30%伤害)=(1,0.30)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(移动速度,1)=(8,1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有武器在攻击时，额外造成X%某种伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(虔诚伤害，20%)= (3，0.20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>游侠特性1——使用远程武器时，获得20%暴击率加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(所有伤害，10%)= (4，0.10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4，0.10)</t>
-  </si>
-  <si>
-    <t>(13,0.20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000301</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000302</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000301</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000302</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>游侠特性2——在移动阶段就可以进行攻击，但是移动时造成伤害-10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑士特性1——获得20%物理强度的防御强度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(9,0.20)</t>
-  </si>
-  <si>
-    <t>剑士特性2——装备近战武器，攻击有15%概率再次攻击一次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑士特性3——装备饰品[剑魂]时，使用长剑武器攻击额外造成20%纯粹伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3，0.20)</t>
-  </si>
-  <si>
-    <t>所有武器在攻击时，额外攻击N次，有X%概率触发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(额外1次,15%概率)=(1，0.15)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1，0.15)</t>
-  </si>
-  <si>
-    <t>Features_1000401</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000402</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000403</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000401</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000402</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000403</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁甲兵特性1 —— 获得100%额外防御强度加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁甲兵特性2 —— 无法获得移速，移速将保持在1点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(12，1.00)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(8,1.00)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000501</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000502</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000501</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000502</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成某种伤害时获得百分比加成(物理1，魔法2，虔诚3，所有4)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成某种伤害时获得百分比衰减(物理1，魔法2，虔诚3，所有4)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -895,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1075,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -1086,13 +1083,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1103,13 +1100,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1120,13 +1117,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1137,13 +1134,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3">
         <v>7</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -1154,13 +1151,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1171,13 +1168,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="3">
         <v>9</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1188,13 +1185,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="3">
         <v>10</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1205,13 +1202,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="3">
         <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1222,13 +1219,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="3">
         <v>12</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1470,19 +1467,19 @@
         <v>1000101</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="I33" s="11"/>
     </row>
@@ -1491,19 +1488,19 @@
         <v>1000102</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
@@ -1511,19 +1508,19 @@
         <v>1000103</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
@@ -1531,19 +1528,19 @@
         <v>1000201</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
@@ -1551,19 +1548,19 @@
         <v>1000202</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="3">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
@@ -1571,19 +1568,19 @@
         <v>1000301</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="E38" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="G38" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
@@ -1591,19 +1588,19 @@
         <v>1000302</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>130</v>
+        <v>104</v>
+      </c>
+      <c r="D39" s="11">
+        <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
@@ -1611,19 +1608,19 @@
         <v>1000401</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="3">
         <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
@@ -1631,19 +1628,19 @@
         <v>1000402</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="3">
         <v>12</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
@@ -1651,19 +1648,19 @@
         <v>1000403</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="3">
         <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
@@ -1671,19 +1668,19 @@
         <v>1000501</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
@@ -1691,19 +1688,19 @@
         <v>1000502</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D44" s="3">
         <v>6</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/JsonExport/excel/Features_buff.xlsx
+++ b/JsonExport/excel/Features_buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901980F0-5A8E-41D1-8E12-87EA8D05A18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F5F77E-EA82-4295-911F-FAB46F826ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>/————————ID段1~1000为枚举字段，不会直接引用，其他特性需要引用这些枚举类型(例如若是一个物理强度成长+25%的特性，则假设id为10001，则枚举类型是1，配置参数为(9，0.25)物理强度与加成百分比)————————/</t>
-  </si>
-  <si>
     <t>某个属性N获得百分比(1+X%)加成</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>某个属性N获得百分比(1-X%)衰减</t>
   </si>
   <si>
-    <t>所有武器在攻击时，额外造成N次X%的伤害(相当于伤害=(1+N*X%)*攻击力)</t>
-  </si>
-  <si>
     <t>/————————后续为实际特性ID字段————————/</t>
   </si>
   <si>
@@ -277,184 +271,169 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>战士特性1--物理强度+30%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士特性2--魔法强度-50%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士特性3--护盾回复+30%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个属性获得某个属性A的X%加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个属性获得某个属性A的X%衰减</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000301</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000302</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000301</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000302</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士特性1——获得20%物理强度的防御强度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(9,0.20)</t>
+  </si>
+  <si>
+    <t>Features_1000401</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000402</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000403</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000401</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000402</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000403</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲兵特性1 —— 获得100%额外防御强度加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000501</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Features_1000502</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000501</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000502</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/————————ID段1~1000为枚举字段,不会直接引用,其他特性需要引用这些枚举类型(例如若是一个物理强度成长+25%的特性,则假设id为10001,则枚举类型是1,配置参数为(9,0.25)物理强度与加成百分比)————————/</t>
+  </si>
+  <si>
+    <t>所有武器在攻击时,额外造成N次X%的伤害(相当于伤害=(1+N*X%)*攻击力)</t>
+  </si>
+  <si>
+    <t>(额外1次,造成30%伤害)=(1,0.30)</t>
+  </si>
+  <si>
     <t>(生命值,10)=(2,10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个属性固定在X值，且永远不会改变</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士特性1--物理强度+30%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士特性2--魔法强度-50%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士特性3--护盾回复+30%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个属性获得某个属性A的X%加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个属性获得某个属性A的X%衰减</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个属性固定在X值,且永远不会改变</t>
+  </si>
+  <si>
+    <t>(移动速度,1)=(8,1)</t>
   </si>
   <si>
     <t>(物理强度,20%)=(9,0.20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(额外1次，造成30%伤害)=(1,0.30)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(移动速度,1)=(8,1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有武器在攻击时，额外造成X%某种伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(虔诚伤害，20%)= (3，0.20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>游侠特性1——使用远程武器时，获得20%暴击率加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(所有伤害，10%)= (4，0.10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4，0.10)</t>
+  </si>
+  <si>
+    <t>所有武器在攻击时,额外造成X%某种伤害</t>
+  </si>
+  <si>
+    <t>(虔诚伤害,20%)= (3,0.20)</t>
+  </si>
+  <si>
+    <t>造成某种伤害时获得百分比加成(物理1,魔法2,虔诚3,所有4)</t>
+  </si>
+  <si>
+    <t>(所有伤害,10%)= (4,0.10)</t>
+  </si>
+  <si>
+    <t>造成某种伤害时获得百分比衰减(物理1,魔法2,虔诚3,所有4)</t>
+  </si>
+  <si>
+    <t>所有武器在攻击时,额外攻击N次,有X%概率触发</t>
+  </si>
+  <si>
+    <t>(额外1次,15%概率)=(1,0.15)</t>
+  </si>
+  <si>
+    <t>(9,0.3)</t>
+  </si>
+  <si>
+    <t>游侠特性1——使用远程武器时,获得20%暴击率加成</t>
   </si>
   <si>
     <t>(13,0.20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000301</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000302</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000301</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000302</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>游侠特性2——在移动阶段就可以进行攻击，但是移动时造成伤害-10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑士特性1——获得20%物理强度的防御强度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(9,0.20)</t>
-  </si>
-  <si>
-    <t>剑士特性2——装备近战武器，攻击有15%概率再次攻击一次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑士特性3——装备饰品[剑魂]时，使用长剑武器攻击额外造成20%纯粹伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3，0.20)</t>
-  </si>
-  <si>
-    <t>所有武器在攻击时，额外攻击N次，有X%概率触发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(额外1次,15%概率)=(1，0.15)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1，0.15)</t>
-  </si>
-  <si>
-    <t>Features_1000401</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000402</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000403</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000401</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000402</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000403</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁甲兵特性1 —— 获得100%额外防御强度加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁甲兵特性2 —— 无法获得移速，移速将保持在1点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(12，1.00)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游侠特性2——在移动阶段就可以进行攻击,但是移动时造成伤害-10%</t>
+  </si>
+  <si>
+    <t>(4,0.10)</t>
+  </si>
+  <si>
+    <t>剑士特性2——装备近战武器,攻击有15%概率再次攻击一次</t>
+  </si>
+  <si>
+    <t>(1,0.15)</t>
+  </si>
+  <si>
+    <t>剑士特性3——装备饰品[剑魂]时,使用长剑武器攻击额外造成20%纯粹伤害</t>
+  </si>
+  <si>
+    <t>(3,0.20)</t>
+  </si>
+  <si>
+    <t>(12,1.00)</t>
+  </si>
+  <si>
+    <t>铁甲兵特性2 —— 无法获得移速,移速将保持在1点</t>
   </si>
   <si>
     <t>(8,1.00)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000501</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Features_1000502</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000501</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000502</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成某种伤害时获得百分比加成(物理1，魔法2，虔诚3，所有4)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成某种伤害时获得百分比衰减(物理1，魔法2，虔诚3，所有4)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(9,0.3)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -892,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1017,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C7" s="9"/>
       <c r="F7" s="9"/>
@@ -1032,13 +1011,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1049,13 +1028,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1066,13 +1045,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -1083,13 +1062,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1100,13 +1079,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1117,13 +1096,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1134,13 +1113,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>7</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -1151,13 +1130,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1168,13 +1147,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D16" s="3">
         <v>9</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1185,13 +1164,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D17" s="3">
         <v>10</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1202,13 +1181,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3">
         <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1219,13 +1198,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D19" s="3">
         <v>12</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1255,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="9"/>
       <c r="F22" s="9"/>
@@ -1267,19 +1246,19 @@
         <v>1001</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1287,19 +1266,19 @@
         <v>1002</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1307,19 +1286,19 @@
         <v>1003</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1327,19 +1306,19 @@
         <v>1004</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1347,19 +1326,19 @@
         <v>1005</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1367,19 +1346,19 @@
         <v>1006</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1387,19 +1366,19 @@
         <v>1007</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1407,19 +1386,19 @@
         <v>1008</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1427,19 +1406,19 @@
         <v>1009</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="3">
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1447,19 +1426,19 @@
         <v>1010</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
@@ -1467,19 +1446,19 @@
         <v>1000101</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I33" s="11"/>
     </row>
@@ -1488,19 +1467,19 @@
         <v>1000102</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
@@ -1508,19 +1487,19 @@
         <v>1000103</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
@@ -1528,19 +1507,19 @@
         <v>1000201</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
@@ -1548,19 +1527,19 @@
         <v>1000202</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D37" s="3">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
@@ -1568,19 +1547,19 @@
         <v>1000301</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
@@ -1588,19 +1567,19 @@
         <v>1000302</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D39" s="11">
         <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
@@ -1608,19 +1587,19 @@
         <v>1000401</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D40" s="3">
         <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
@@ -1628,19 +1607,19 @@
         <v>1000402</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D41" s="3">
         <v>12</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
@@ -1648,19 +1627,19 @@
         <v>1000403</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D42" s="3">
         <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
@@ -1668,19 +1647,19 @@
         <v>1000501</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
@@ -1688,19 +1667,19 @@
         <v>1000502</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D44" s="3">
         <v>6</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/JsonExport/excel/Features_buff.xlsx
+++ b/JsonExport/excel/Features_buff.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F5F77E-EA82-4295-911F-FAB46F826ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -98,22 +105,76 @@
     <t>string</t>
   </si>
   <si>
+    <t>/————————ID段1~1000为枚举字段,不会直接引用,其他特性需要引用这些枚举类型(例如若是一个物理强度成长+25%的特性,则假设id为10001,则枚举类型是1,配置参数为(9,0.25)物理强度与加成百分比)————————/</t>
+  </si>
+  <si>
     <t>某个属性N获得百分比(1+X%)加成</t>
   </si>
   <si>
-    <t>(生命值,25%)=(2,0.25)</t>
+    <t>[生命值,25%]=[2,0.25]</t>
   </si>
   <si>
     <t>某个属性N获得百分比(1-X%)衰减</t>
   </si>
   <si>
+    <t>所有武器在攻击时,额外造成N次X%的伤害(相当于伤害=(1+N*X%)*攻击力)</t>
+  </si>
+  <si>
+    <t>[额外1次,造成30%伤害]=[1,0.30]</t>
+  </si>
+  <si>
+    <t>某个属性N获得数值上的X加成</t>
+  </si>
+  <si>
+    <t>[生命值,10]=[2,10]</t>
+  </si>
+  <si>
+    <t>某个属性N获得数值上的X衰减</t>
+  </si>
+  <si>
+    <t>某个属性固定在X值,且永远不会改变</t>
+  </si>
+  <si>
+    <t>[移动速度,1]=[8,1]</t>
+  </si>
+  <si>
+    <t>某个属性获得某个属性A的X%加成</t>
+  </si>
+  <si>
+    <t>[物理强度,20%]=[9,0.20]</t>
+  </si>
+  <si>
+    <t>某个属性获得某个属性A的X%衰减</t>
+  </si>
+  <si>
+    <t>所有武器在攻击时,额外造成X%某种伤害</t>
+  </si>
+  <si>
+    <t>[虔诚伤害,20%]= [3,0.20]</t>
+  </si>
+  <si>
+    <t>造成某种伤害时获得百分比加成(物理1,魔法2,虔诚3,所有4)</t>
+  </si>
+  <si>
+    <t>[所有伤害,10%]= [4,0.10]</t>
+  </si>
+  <si>
+    <t>造成某种伤害时获得百分比衰减(物理1,魔法2,虔诚3,所有4)</t>
+  </si>
+  <si>
+    <t>所有武器在攻击时,额外攻击N次,有X%概率触发</t>
+  </si>
+  <si>
+    <t>[额外1次,15%概率]=[1,0.15]</t>
+  </si>
+  <si>
     <t>/————————后续为实际特性ID字段————————/</t>
   </si>
   <si>
     <t>生命+25%</t>
   </si>
   <si>
-    <t>(2,0.25)</t>
+    <t>[2,0.25]</t>
   </si>
   <si>
     <t>Features_1001</t>
@@ -125,7 +186,7 @@
     <t>生命回复+25%</t>
   </si>
   <si>
-    <t>(3,0.25)</t>
+    <t>[3,0.25]</t>
   </si>
   <si>
     <t>Features_1002</t>
@@ -137,7 +198,7 @@
     <t>生命窃取+10%</t>
   </si>
   <si>
-    <t>(4,0.1)</t>
+    <t>[4,0.1]</t>
   </si>
   <si>
     <t>Features_1003</t>
@@ -149,7 +210,7 @@
     <t>护盾值+50%</t>
   </si>
   <si>
-    <t>(5,0.5)</t>
+    <t>[5,0.5]</t>
   </si>
   <si>
     <t>Features_1004</t>
@@ -161,7 +222,7 @@
     <t>护盾回复+100%</t>
   </si>
   <si>
-    <t>(6,1)</t>
+    <t>[6,1]</t>
   </si>
   <si>
     <t>Features_1005</t>
@@ -215,13 +276,22 @@
     <t>FeaturesDes_1010</t>
   </si>
   <si>
+    <t>战士特性1--物理强度+30%</t>
+  </si>
+  <si>
+    <t>[9,0.3]</t>
+  </si>
+  <si>
     <t>Features_1000101</t>
   </si>
   <si>
     <t>FeaturesDes_1000101</t>
   </si>
   <si>
-    <t>(10,0.5)</t>
+    <t>战士特性2--魔法强度-50%</t>
+  </si>
+  <si>
+    <t>[10,0.5]</t>
   </si>
   <si>
     <t>Features_1000102</t>
@@ -230,7 +300,10 @@
     <t>FeaturesDes_1000102</t>
   </si>
   <si>
-    <t>(6,0.3)</t>
+    <t>战士特性3--护盾回复+30%</t>
+  </si>
+  <si>
+    <t>[6,0.3]</t>
   </si>
   <si>
     <t>Features_1000103</t>
@@ -242,7 +315,7 @@
     <t>弓手特性1--物理强度-50%</t>
   </si>
   <si>
-    <t>(9,0.5)</t>
+    <t>[9,0.5]</t>
   </si>
   <si>
     <t>Features_1000201</t>
@@ -254,7 +327,7 @@
     <t>弓手特性2--每次攻击额外造成一次30%的伤害</t>
   </si>
   <si>
-    <t>(1,0.3)</t>
+    <t>[1,0.3]</t>
   </si>
   <si>
     <t>Features_1000202</t>
@@ -263,184 +336,101 @@
     <t>FeaturesDes_1000202</t>
   </si>
   <si>
-    <t>某个属性N获得数值上的X加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个属性N获得数值上的X衰减</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士特性1--物理强度+30%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士特性2--魔法强度-50%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士特性3--护盾回复+30%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个属性获得某个属性A的X%加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个属性获得某个属性A的X%衰减</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>游侠特性1——使用远程武器时,获得20%暴击率加成</t>
+  </si>
+  <si>
+    <t>[13,0.20]</t>
   </si>
   <si>
     <t>Features_1000301</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000301</t>
+  </si>
+  <si>
+    <t>游侠特性2——在移动阶段就可以进行攻击,但是移动时造成伤害-10%</t>
+  </si>
+  <si>
+    <t>[4,0.10]</t>
   </si>
   <si>
     <t>Features_1000302</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000301</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FeaturesDes_1000302</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>剑士特性1——获得20%物理强度的防御强度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(9,0.20)</t>
+  </si>
+  <si>
+    <t>[9,0.20]</t>
   </si>
   <si>
     <t>Features_1000401</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000401</t>
+  </si>
+  <si>
+    <t>剑士特性2——装备近战武器,攻击有15%概率再次攻击一次</t>
+  </si>
+  <si>
+    <t>[1,0.15]</t>
   </si>
   <si>
     <t>Features_1000402</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000402</t>
+  </si>
+  <si>
+    <t>剑士特性3——装备饰品[剑魂]时,使用长剑武器攻击额外造成20%纯粹伤害</t>
+  </si>
+  <si>
+    <t>[3,0.20]</t>
   </si>
   <si>
     <t>Features_1000403</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000401</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000402</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FeaturesDes_1000403</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>铁甲兵特性1 —— 获得100%额外防御强度加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12,1.00]</t>
   </si>
   <si>
     <t>Features_1000501</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeaturesDes_1000501</t>
+  </si>
+  <si>
+    <t>铁甲兵特性2 —— 无法获得移速,移速将保持在1点</t>
+  </si>
+  <si>
+    <t>[8,1.00]</t>
   </si>
   <si>
     <t>Features_1000502</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeaturesDes_1000501</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FeaturesDes_1000502</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/————————ID段1~1000为枚举字段,不会直接引用,其他特性需要引用这些枚举类型(例如若是一个物理强度成长+25%的特性,则假设id为10001,则枚举类型是1,配置参数为(9,0.25)物理强度与加成百分比)————————/</t>
-  </si>
-  <si>
-    <t>所有武器在攻击时,额外造成N次X%的伤害(相当于伤害=(1+N*X%)*攻击力)</t>
-  </si>
-  <si>
-    <t>(额外1次,造成30%伤害)=(1,0.30)</t>
-  </si>
-  <si>
-    <t>(生命值,10)=(2,10)</t>
-  </si>
-  <si>
-    <t>某个属性固定在X值,且永远不会改变</t>
-  </si>
-  <si>
-    <t>(移动速度,1)=(8,1)</t>
-  </si>
-  <si>
-    <t>(物理强度,20%)=(9,0.20)</t>
-  </si>
-  <si>
-    <t>所有武器在攻击时,额外造成X%某种伤害</t>
-  </si>
-  <si>
-    <t>(虔诚伤害,20%)= (3,0.20)</t>
-  </si>
-  <si>
-    <t>造成某种伤害时获得百分比加成(物理1,魔法2,虔诚3,所有4)</t>
-  </si>
-  <si>
-    <t>(所有伤害,10%)= (4,0.10)</t>
-  </si>
-  <si>
-    <t>造成某种伤害时获得百分比衰减(物理1,魔法2,虔诚3,所有4)</t>
-  </si>
-  <si>
-    <t>所有武器在攻击时,额外攻击N次,有X%概率触发</t>
-  </si>
-  <si>
-    <t>(额外1次,15%概率)=(1,0.15)</t>
-  </si>
-  <si>
-    <t>(9,0.3)</t>
-  </si>
-  <si>
-    <t>游侠特性1——使用远程武器时,获得20%暴击率加成</t>
-  </si>
-  <si>
-    <t>(13,0.20)</t>
-  </si>
-  <si>
-    <t>游侠特性2——在移动阶段就可以进行攻击,但是移动时造成伤害-10%</t>
-  </si>
-  <si>
-    <t>(4,0.10)</t>
-  </si>
-  <si>
-    <t>剑士特性2——装备近战武器,攻击有15%概率再次攻击一次</t>
-  </si>
-  <si>
-    <t>(1,0.15)</t>
-  </si>
-  <si>
-    <t>剑士特性3——装备饰品[剑魂]时,使用长剑武器攻击额外造成20%纯粹伤害</t>
-  </si>
-  <si>
-    <t>(3,0.20)</t>
-  </si>
-  <si>
-    <t>(12,1.00)</t>
-  </si>
-  <si>
-    <t>铁甲兵特性2 —— 无法获得移速,移速将保持在1点</t>
-  </si>
-  <si>
-    <t>(8,1.00)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,7 +441,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -459,7 +448,6 @@
       <sz val="11"/>
       <color theme="5"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -467,19 +455,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,18 +612,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -522,9 +832,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -566,17 +1118,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -863,32 +1459,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.37962962962963" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="73.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.1296296296296" style="3" customWidth="1"/>
     <col min="5" max="5" width="64.75" style="3" customWidth="1"/>
-    <col min="6" max="8" width="29.875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="29.8796296296296" style="3" customWidth="1"/>
     <col min="9" max="9" width="9" style="3"/>
     <col min="10" max="10" width="20.25" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -896,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -919,7 +1515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" ht="53.1" customHeight="1" spans="2:8">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -942,7 +1538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" spans="2:10">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -951,7 +1547,7 @@
       <c r="H4" s="6"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" spans="2:8">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -971,7 +1567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -991,19 +1587,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="C7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -1011,16 +1607,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -1028,16 +1624,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -1045,16 +1641,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
@@ -1062,16 +1658,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
@@ -1079,16 +1675,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
         <v>0</v>
       </c>
@@ -1096,16 +1692,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
@@ -1113,16 +1709,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3">
         <v>7</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
@@ -1130,16 +1726,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
@@ -1147,16 +1743,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3">
         <v>9</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
@@ -1164,16 +1760,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3">
         <v>10</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -1181,16 +1777,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3">
         <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
@@ -1198,16 +1794,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3">
         <v>12</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -1229,219 +1825,219 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="3">
         <v>1001</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="3">
         <v>1002</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="3">
         <v>1003</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="3">
         <v>1004</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="3">
         <v>1005</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="3">
         <v>1006</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="3">
         <v>1007</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="3">
         <v>1008</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="3">
         <v>1009</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D31" s="3">
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="3">
         <v>1010</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="3">
         <v>1000101</v>
       </c>
@@ -1452,239 +2048,239 @@
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7">
       <c r="B34" s="3">
         <v>1000102</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="3">
         <v>1000103</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="3">
         <v>1000201</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="3">
         <v>1000202</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D37" s="3">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="3">
         <v>1000301</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="3">
         <v>1000302</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D39" s="11">
         <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="3">
         <v>1000401</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D40" s="3">
         <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="3">
         <v>1000402</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D41" s="3">
         <v>12</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="3">
         <v>1000403</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D42" s="3">
         <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="3">
         <v>1000501</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="3">
         <v>1000502</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="3">
         <v>6</v>
       </c>
       <c r="E44" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>103</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>